--- a/podatki/voz.xlsx
+++ b/podatki/voz.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="16">
   <si>
     <t>zacetna_postaja</t>
   </si>
@@ -69,9 +69,6 @@
   </si>
   <si>
     <t>Salzburg</t>
-  </si>
-  <si>
-    <t>61,40</t>
   </si>
   <si>
     <t>122,80</t>
@@ -396,7 +393,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -917,11 +914,11 @@
       <c r="D20" s="1">
         <v>0.4916666666666667</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20">
+        <v>61.4</v>
+      </c>
+      <c r="F20" t="s">
         <v>15</v>
-      </c>
-      <c r="F20" t="s">
-        <v>16</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -943,11 +940,11 @@
       <c r="D21" s="1">
         <v>0.57500000000000007</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21">
+        <v>61.4</v>
+      </c>
+      <c r="F21" t="s">
         <v>15</v>
-      </c>
-      <c r="F21" t="s">
-        <v>16</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -969,11 +966,11 @@
       <c r="D22" s="1">
         <v>0.82500000000000007</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22">
+        <v>61.4</v>
+      </c>
+      <c r="F22" t="s">
         <v>15</v>
-      </c>
-      <c r="F22" t="s">
-        <v>16</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -995,11 +992,11 @@
       <c r="D23" s="1">
         <v>0.60486111111111118</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23">
+        <v>61.4</v>
+      </c>
+      <c r="F23" t="s">
         <v>15</v>
-      </c>
-      <c r="F23" t="s">
-        <v>16</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1021,11 +1018,11 @@
       <c r="D24" s="1">
         <v>0.77222222222222225</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24">
+        <v>61.4</v>
+      </c>
+      <c r="F24" t="s">
         <v>15</v>
-      </c>
-      <c r="F24" t="s">
-        <v>16</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1047,11 +1044,11 @@
       <c r="D25" s="1">
         <v>0.85625000000000007</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25">
+        <v>61.4</v>
+      </c>
+      <c r="F25" t="s">
         <v>15</v>
-      </c>
-      <c r="F25" t="s">
-        <v>16</v>
       </c>
       <c r="G25">
         <v>1</v>

--- a/podatki/voz.xlsx
+++ b/podatki/voz.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="15">
   <si>
     <t>zacetna_postaja</t>
   </si>
@@ -51,9 +51,6 @@
   </si>
   <si>
     <t>Graz</t>
-  </si>
-  <si>
-    <t>71,40</t>
   </si>
   <si>
     <t>prestop</t>
@@ -78,13 +75,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFDBDEE1"/>
+      <name val="Helvetica"/>
     </font>
   </fonts>
   <fills count="2">
@@ -107,9 +109,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -390,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -407,7 +410,7 @@
     <col min="7" max="7" width="11.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -427,13 +430,13 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -449,8 +452,8 @@
       <c r="E2">
         <v>35.700000000000003</v>
       </c>
-      <c r="F2" t="s">
-        <v>9</v>
+      <c r="F2">
+        <v>71.400000000000006</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -459,7 +462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -475,8 +478,8 @@
       <c r="E3">
         <v>35.700000000000003</v>
       </c>
-      <c r="F3" t="s">
-        <v>9</v>
+      <c r="F3">
+        <v>71.400000000000006</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -485,7 +488,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -501,8 +504,8 @@
       <c r="E4">
         <v>35.700000000000003</v>
       </c>
-      <c r="F4" t="s">
-        <v>9</v>
+      <c r="F4">
+        <v>71.400000000000006</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -511,7 +514,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -527,8 +530,8 @@
       <c r="E5">
         <v>35.700000000000003</v>
       </c>
-      <c r="F5" t="s">
-        <v>9</v>
+      <c r="F5">
+        <v>71.400000000000006</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -537,7 +540,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -553,8 +556,8 @@
       <c r="E6">
         <v>35.700000000000003</v>
       </c>
-      <c r="F6" t="s">
-        <v>9</v>
+      <c r="F6">
+        <v>71.400000000000006</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -563,7 +566,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -579,8 +582,8 @@
       <c r="E7">
         <v>35.700000000000003</v>
       </c>
-      <c r="F7" t="s">
-        <v>9</v>
+      <c r="F7">
+        <v>71.400000000000006</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -589,7 +592,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -606,7 +609,7 @@
         <v>80.099999999999994</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -614,8 +617,9 @@
       <c r="H8">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -632,7 +636,7 @@
         <v>80.099999999999994</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -641,7 +645,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -658,7 +662,7 @@
         <v>80.099999999999994</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -667,7 +671,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -684,7 +688,7 @@
         <v>88</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -693,7 +697,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -710,7 +714,7 @@
         <v>88</v>
       </c>
       <c r="F12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -719,7 +723,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -736,7 +740,7 @@
         <v>88</v>
       </c>
       <c r="F13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -745,7 +749,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -762,7 +766,7 @@
         <v>80.099999999999994</v>
       </c>
       <c r="F14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -771,7 +775,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -788,7 +792,7 @@
         <v>80.099999999999994</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -797,7 +801,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -814,7 +818,7 @@
         <v>80.099999999999994</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -840,7 +844,7 @@
         <v>88</v>
       </c>
       <c r="F17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -866,7 +870,7 @@
         <v>88</v>
       </c>
       <c r="F18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -892,7 +896,7 @@
         <v>88</v>
       </c>
       <c r="F19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -906,7 +910,7 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C20" s="1">
         <v>0.30972222222222223</v>
@@ -918,7 +922,7 @@
         <v>61.4</v>
       </c>
       <c r="F20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -932,7 +936,7 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C21" s="1">
         <v>0.39097222222222222</v>
@@ -944,7 +948,7 @@
         <v>61.4</v>
       </c>
       <c r="F21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -958,7 +962,7 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C22" s="1">
         <v>0.64374999999999993</v>
@@ -970,7 +974,7 @@
         <v>61.4</v>
       </c>
       <c r="F22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -981,7 +985,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B23" t="s">
         <v>6</v>
@@ -996,7 +1000,7 @@
         <v>61.4</v>
       </c>
       <c r="F23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1007,7 +1011,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B24" t="s">
         <v>6</v>
@@ -1022,7 +1026,7 @@
         <v>61.4</v>
       </c>
       <c r="F24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1033,7 +1037,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B25" t="s">
         <v>6</v>
@@ -1048,7 +1052,7 @@
         <v>61.4</v>
       </c>
       <c r="F25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G25">
         <v>1</v>

--- a/podatki/voz.xlsx
+++ b/podatki/voz.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="12">
   <si>
     <t>zacetna_postaja</t>
   </si>
@@ -59,16 +59,7 @@
     <t>id</t>
   </si>
   <si>
-    <t>160,20</t>
-  </si>
-  <si>
-    <t>176,00</t>
-  </si>
-  <si>
     <t>Salzburg</t>
-  </si>
-  <si>
-    <t>122,80</t>
   </si>
 </sst>
 </file>
@@ -396,7 +387,7 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -608,8 +599,8 @@
       <c r="E8">
         <v>80.099999999999994</v>
       </c>
-      <c r="F8" t="s">
-        <v>11</v>
+      <c r="F8">
+        <v>160.19999999999999</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -635,8 +626,8 @@
       <c r="E9">
         <v>80.099999999999994</v>
       </c>
-      <c r="F9" t="s">
-        <v>11</v>
+      <c r="F9">
+        <v>160.19999999999999</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -661,8 +652,8 @@
       <c r="E10">
         <v>80.099999999999994</v>
       </c>
-      <c r="F10" t="s">
-        <v>11</v>
+      <c r="F10">
+        <v>160.19999999999999</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -687,8 +678,8 @@
       <c r="E11">
         <v>88</v>
       </c>
-      <c r="F11" t="s">
-        <v>12</v>
+      <c r="F11">
+        <v>176</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -713,8 +704,8 @@
       <c r="E12">
         <v>88</v>
       </c>
-      <c r="F12" t="s">
-        <v>12</v>
+      <c r="F12">
+        <v>176</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -739,8 +730,8 @@
       <c r="E13">
         <v>88</v>
       </c>
-      <c r="F13" t="s">
-        <v>12</v>
+      <c r="F13">
+        <v>176</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -765,8 +756,8 @@
       <c r="E14">
         <v>80.099999999999994</v>
       </c>
-      <c r="F14" t="s">
-        <v>11</v>
+      <c r="F14">
+        <v>160.19999999999999</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -791,8 +782,8 @@
       <c r="E15">
         <v>80.099999999999994</v>
       </c>
-      <c r="F15" t="s">
-        <v>11</v>
+      <c r="F15">
+        <v>160.19999999999999</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -817,8 +808,8 @@
       <c r="E16">
         <v>80.099999999999994</v>
       </c>
-      <c r="F16" t="s">
-        <v>11</v>
+      <c r="F16">
+        <v>160.19999999999999</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -843,8 +834,8 @@
       <c r="E17">
         <v>88</v>
       </c>
-      <c r="F17" t="s">
-        <v>12</v>
+      <c r="F17">
+        <v>176</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -869,8 +860,8 @@
       <c r="E18">
         <v>88</v>
       </c>
-      <c r="F18" t="s">
-        <v>12</v>
+      <c r="F18">
+        <v>176</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -895,8 +886,8 @@
       <c r="E19">
         <v>88</v>
       </c>
-      <c r="F19" t="s">
-        <v>12</v>
+      <c r="F19">
+        <v>176</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -910,7 +901,7 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C20" s="1">
         <v>0.30972222222222223</v>
@@ -921,8 +912,8 @@
       <c r="E20">
         <v>61.4</v>
       </c>
-      <c r="F20" t="s">
-        <v>14</v>
+      <c r="F20">
+        <v>122.8</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -936,7 +927,7 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C21" s="1">
         <v>0.39097222222222222</v>
@@ -947,8 +938,8 @@
       <c r="E21">
         <v>61.4</v>
       </c>
-      <c r="F21" t="s">
-        <v>14</v>
+      <c r="F21">
+        <v>122.8</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -962,7 +953,7 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C22" s="1">
         <v>0.64374999999999993</v>
@@ -973,8 +964,8 @@
       <c r="E22">
         <v>61.4</v>
       </c>
-      <c r="F22" t="s">
-        <v>14</v>
+      <c r="F22">
+        <v>122.8</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -985,7 +976,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B23" t="s">
         <v>6</v>
@@ -999,8 +990,8 @@
       <c r="E23">
         <v>61.4</v>
       </c>
-      <c r="F23" t="s">
-        <v>14</v>
+      <c r="F23">
+        <v>122.8</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1011,7 +1002,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B24" t="s">
         <v>6</v>
@@ -1025,8 +1016,8 @@
       <c r="E24">
         <v>61.4</v>
       </c>
-      <c r="F24" t="s">
-        <v>14</v>
+      <c r="F24">
+        <v>122.8</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1037,7 +1028,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B25" t="s">
         <v>6</v>
@@ -1051,8 +1042,8 @@
       <c r="E25">
         <v>61.4</v>
       </c>
-      <c r="F25" t="s">
-        <v>14</v>
+      <c r="F25">
+        <v>122.8</v>
       </c>
       <c r="G25">
         <v>1</v>
